--- a/Proyecto/ShinyDisplayDeConclusiones/DatosParaMostrar/aval.xlsx
+++ b/Proyecto/ShinyDisplayDeConclusiones/DatosParaMostrar/aval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mentxaka/Documents/Universidad De Deusto/2021-22/1er Semestre/Big Data y Business Intelligence/Proyecto/ShinyDisplayDeConclusiones/DatosParaMostrar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF486D08-FD9C-0B4F-9874-C3F89089F2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6505E69-3E36-234B-8A55-4A038429D4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{46B09506-0552-3743-8A88-DDCB44D5AD29}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{46B09506-0552-3743-8A88-DDCB44D5AD29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>CTD</t>
   </si>
   <si>
-    <t>EST</t>
+    <t>CoP</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
